--- a/outputs/backtest/a0.5_p0.5_w60_n20_MLP_singlecrossmarket_summary_2025.xlsx
+++ b/outputs/backtest/a0.5_p0.5_w60_n20_MLP_singlecrossmarket_summary_2025.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J239"/>
+  <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,16 @@
           <t>sum_w</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>expected_money</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -520,6 +530,12 @@
       <c r="J2" t="n">
         <v>1</v>
       </c>
+      <c r="K2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -552,6 +568,12 @@
       <c r="J3" t="n">
         <v>1</v>
       </c>
+      <c r="K3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -584,6 +606,12 @@
       <c r="J4" t="n">
         <v>1</v>
       </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -616,6 +644,12 @@
       <c r="J5" t="n">
         <v>1</v>
       </c>
+      <c r="K5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -648,6 +682,12 @@
       <c r="J6" t="n">
         <v>1</v>
       </c>
+      <c r="K6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -680,6 +720,12 @@
       <c r="J7" t="n">
         <v>1</v>
       </c>
+      <c r="K7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -712,6 +758,12 @@
       <c r="J8" t="n">
         <v>1</v>
       </c>
+      <c r="K8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -744,6 +796,12 @@
       <c r="J9" t="n">
         <v>1</v>
       </c>
+      <c r="K9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -776,6 +834,12 @@
       <c r="J10" t="n">
         <v>1</v>
       </c>
+      <c r="K10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -808,6 +872,12 @@
       <c r="J11" t="n">
         <v>1</v>
       </c>
+      <c r="K11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -840,6 +910,12 @@
       <c r="J12" t="n">
         <v>1</v>
       </c>
+      <c r="K12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -872,6 +948,12 @@
       <c r="J13" t="n">
         <v>1</v>
       </c>
+      <c r="K13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -904,6 +986,12 @@
       <c r="J14" t="n">
         <v>1</v>
       </c>
+      <c r="K14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -936,6 +1024,12 @@
       <c r="J15" t="n">
         <v>1</v>
       </c>
+      <c r="K15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -968,6 +1062,12 @@
       <c r="J16" t="n">
         <v>1</v>
       </c>
+      <c r="K16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1000,6 +1100,12 @@
       <c r="J17" t="n">
         <v>1</v>
       </c>
+      <c r="K17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1032,6 +1138,12 @@
       <c r="J18" t="n">
         <v>1</v>
       </c>
+      <c r="K18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1064,6 +1176,12 @@
       <c r="J19" t="n">
         <v>1</v>
       </c>
+      <c r="K19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1096,6 +1214,12 @@
       <c r="J20" t="n">
         <v>1</v>
       </c>
+      <c r="K20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1128,6 +1252,12 @@
       <c r="J21" t="n">
         <v>1</v>
       </c>
+      <c r="K21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1160,6 +1290,12 @@
       <c r="J22" t="n">
         <v>1</v>
       </c>
+      <c r="K22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1192,6 +1328,12 @@
       <c r="J23" t="n">
         <v>1</v>
       </c>
+      <c r="K23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1224,6 +1366,12 @@
       <c r="J24" t="n">
         <v>1</v>
       </c>
+      <c r="K24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1256,6 +1404,12 @@
       <c r="J25" t="n">
         <v>1</v>
       </c>
+      <c r="K25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1288,6 +1442,12 @@
       <c r="J26" t="n">
         <v>1</v>
       </c>
+      <c r="K26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1320,6 +1480,12 @@
       <c r="J27" t="n">
         <v>1</v>
       </c>
+      <c r="K27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1352,6 +1518,12 @@
       <c r="J28" t="n">
         <v>1</v>
       </c>
+      <c r="K28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1384,6 +1556,12 @@
       <c r="J29" t="n">
         <v>1</v>
       </c>
+      <c r="K29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1416,6 +1594,12 @@
       <c r="J30" t="n">
         <v>1</v>
       </c>
+      <c r="K30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1448,6 +1632,12 @@
       <c r="J31" t="n">
         <v>1</v>
       </c>
+      <c r="K31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1480,6 +1670,12 @@
       <c r="J32" t="n">
         <v>1</v>
       </c>
+      <c r="K32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1512,6 +1708,12 @@
       <c r="J33" t="n">
         <v>1</v>
       </c>
+      <c r="K33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1544,6 +1746,12 @@
       <c r="J34" t="n">
         <v>1</v>
       </c>
+      <c r="K34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1576,6 +1784,12 @@
       <c r="J35" t="n">
         <v>1</v>
       </c>
+      <c r="K35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1608,6 +1822,12 @@
       <c r="J36" t="n">
         <v>1</v>
       </c>
+      <c r="K36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1640,6 +1860,12 @@
       <c r="J37" t="n">
         <v>1</v>
       </c>
+      <c r="K37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1672,6 +1898,12 @@
       <c r="J38" t="n">
         <v>1</v>
       </c>
+      <c r="K38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1704,6 +1936,12 @@
       <c r="J39" t="n">
         <v>1</v>
       </c>
+      <c r="K39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1736,6 +1974,12 @@
       <c r="J40" t="n">
         <v>1</v>
       </c>
+      <c r="K40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1768,6 +2012,12 @@
       <c r="J41" t="n">
         <v>1</v>
       </c>
+      <c r="K41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1800,6 +2050,12 @@
       <c r="J42" t="n">
         <v>1</v>
       </c>
+      <c r="K42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1832,6 +2088,12 @@
       <c r="J43" t="n">
         <v>1</v>
       </c>
+      <c r="K43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1864,6 +2126,12 @@
       <c r="J44" t="n">
         <v>1</v>
       </c>
+      <c r="K44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1896,6 +2164,12 @@
       <c r="J45" t="n">
         <v>1</v>
       </c>
+      <c r="K45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1928,6 +2202,12 @@
       <c r="J46" t="n">
         <v>1</v>
       </c>
+      <c r="K46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1960,6 +2240,12 @@
       <c r="J47" t="n">
         <v>1</v>
       </c>
+      <c r="K47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1992,6 +2278,12 @@
       <c r="J48" t="n">
         <v>1</v>
       </c>
+      <c r="K48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2024,6 +2316,12 @@
       <c r="J49" t="n">
         <v>1</v>
       </c>
+      <c r="K49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2056,6 +2354,12 @@
       <c r="J50" t="n">
         <v>1</v>
       </c>
+      <c r="K50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2088,6 +2392,12 @@
       <c r="J51" t="n">
         <v>1</v>
       </c>
+      <c r="K51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2120,6 +2430,12 @@
       <c r="J52" t="n">
         <v>1</v>
       </c>
+      <c r="K52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2152,6 +2468,12 @@
       <c r="J53" t="n">
         <v>1</v>
       </c>
+      <c r="K53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2184,6 +2506,12 @@
       <c r="J54" t="n">
         <v>1</v>
       </c>
+      <c r="K54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2216,6 +2544,12 @@
       <c r="J55" t="n">
         <v>1</v>
       </c>
+      <c r="K55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2248,6 +2582,12 @@
       <c r="J56" t="n">
         <v>1</v>
       </c>
+      <c r="K56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2280,6 +2620,12 @@
       <c r="J57" t="n">
         <v>1</v>
       </c>
+      <c r="K57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2312,6 +2658,12 @@
       <c r="J58" t="n">
         <v>1</v>
       </c>
+      <c r="K58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2344,6 +2696,12 @@
       <c r="J59" t="n">
         <v>1</v>
       </c>
+      <c r="K59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2376,6 +2734,12 @@
       <c r="J60" t="n">
         <v>1</v>
       </c>
+      <c r="K60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2408,6 +2772,12 @@
       <c r="J61" t="n">
         <v>1</v>
       </c>
+      <c r="K61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2440,6 +2810,12 @@
       <c r="J62" t="n">
         <v>1</v>
       </c>
+      <c r="K62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2472,6 +2848,12 @@
       <c r="J63" t="n">
         <v>1</v>
       </c>
+      <c r="K63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2504,6 +2886,12 @@
       <c r="J64" t="n">
         <v>1</v>
       </c>
+      <c r="K64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2536,6 +2924,12 @@
       <c r="J65" t="n">
         <v>1</v>
       </c>
+      <c r="K65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2568,6 +2962,12 @@
       <c r="J66" t="n">
         <v>1</v>
       </c>
+      <c r="K66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2600,6 +3000,12 @@
       <c r="J67" t="n">
         <v>1</v>
       </c>
+      <c r="K67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2632,6 +3038,12 @@
       <c r="J68" t="n">
         <v>1</v>
       </c>
+      <c r="K68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2664,6 +3076,12 @@
       <c r="J69" t="n">
         <v>1</v>
       </c>
+      <c r="K69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2696,6 +3114,12 @@
       <c r="J70" t="n">
         <v>1</v>
       </c>
+      <c r="K70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2728,6 +3152,12 @@
       <c r="J71" t="n">
         <v>1</v>
       </c>
+      <c r="K71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2760,6 +3190,12 @@
       <c r="J72" t="n">
         <v>1</v>
       </c>
+      <c r="K72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2792,6 +3228,12 @@
       <c r="J73" t="n">
         <v>1</v>
       </c>
+      <c r="K73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2824,6 +3266,12 @@
       <c r="J74" t="n">
         <v>1</v>
       </c>
+      <c r="K74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2856,6 +3304,12 @@
       <c r="J75" t="n">
         <v>1</v>
       </c>
+      <c r="K75" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2888,6 +3342,12 @@
       <c r="J76" t="n">
         <v>1</v>
       </c>
+      <c r="K76" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2920,6 +3380,12 @@
       <c r="J77" t="n">
         <v>1</v>
       </c>
+      <c r="K77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2952,6 +3418,12 @@
       <c r="J78" t="n">
         <v>1</v>
       </c>
+      <c r="K78" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2984,6 +3456,12 @@
       <c r="J79" t="n">
         <v>1</v>
       </c>
+      <c r="K79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -3016,6 +3494,12 @@
       <c r="J80" t="n">
         <v>1</v>
       </c>
+      <c r="K80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -3048,6 +3532,12 @@
       <c r="J81" t="n">
         <v>1</v>
       </c>
+      <c r="K81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -3080,6 +3570,12 @@
       <c r="J82" t="n">
         <v>1</v>
       </c>
+      <c r="K82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -3112,6 +3608,12 @@
       <c r="J83" t="n">
         <v>1</v>
       </c>
+      <c r="K83" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -3144,6 +3646,12 @@
       <c r="J84" t="n">
         <v>1</v>
       </c>
+      <c r="K84" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -3176,6 +3684,12 @@
       <c r="J85" t="n">
         <v>1</v>
       </c>
+      <c r="K85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -3208,6 +3722,12 @@
       <c r="J86" t="n">
         <v>1</v>
       </c>
+      <c r="K86" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -3240,6 +3760,12 @@
       <c r="J87" t="n">
         <v>1</v>
       </c>
+      <c r="K87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -3272,6 +3798,12 @@
       <c r="J88" t="n">
         <v>1</v>
       </c>
+      <c r="K88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -3304,6 +3836,12 @@
       <c r="J89" t="n">
         <v>1</v>
       </c>
+      <c r="K89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -3336,6 +3874,12 @@
       <c r="J90" t="n">
         <v>1</v>
       </c>
+      <c r="K90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -3368,6 +3912,12 @@
       <c r="J91" t="n">
         <v>1</v>
       </c>
+      <c r="K91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -3400,6 +3950,12 @@
       <c r="J92" t="n">
         <v>1</v>
       </c>
+      <c r="K92" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -3432,6 +3988,12 @@
       <c r="J93" t="n">
         <v>1</v>
       </c>
+      <c r="K93" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -3464,6 +4026,12 @@
       <c r="J94" t="n">
         <v>1</v>
       </c>
+      <c r="K94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -3496,6 +4064,12 @@
       <c r="J95" t="n">
         <v>1</v>
       </c>
+      <c r="K95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -3528,6 +4102,12 @@
       <c r="J96" t="n">
         <v>1</v>
       </c>
+      <c r="K96" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -3560,6 +4140,12 @@
       <c r="J97" t="n">
         <v>1</v>
       </c>
+      <c r="K97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -3592,6 +4178,12 @@
       <c r="J98" t="n">
         <v>1</v>
       </c>
+      <c r="K98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -3624,6 +4216,12 @@
       <c r="J99" t="n">
         <v>1</v>
       </c>
+      <c r="K99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -3656,6 +4254,12 @@
       <c r="J100" t="n">
         <v>1</v>
       </c>
+      <c r="K100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -3688,6 +4292,12 @@
       <c r="J101" t="n">
         <v>1</v>
       </c>
+      <c r="K101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -3720,6 +4330,12 @@
       <c r="J102" t="n">
         <v>1</v>
       </c>
+      <c r="K102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -3752,6 +4368,12 @@
       <c r="J103" t="n">
         <v>1</v>
       </c>
+      <c r="K103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -3784,6 +4406,12 @@
       <c r="J104" t="n">
         <v>1</v>
       </c>
+      <c r="K104" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -3816,6 +4444,12 @@
       <c r="J105" t="n">
         <v>1</v>
       </c>
+      <c r="K105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -3848,6 +4482,12 @@
       <c r="J106" t="n">
         <v>1</v>
       </c>
+      <c r="K106" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -3880,6 +4520,12 @@
       <c r="J107" t="n">
         <v>1</v>
       </c>
+      <c r="K107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -3912,6 +4558,12 @@
       <c r="J108" t="n">
         <v>1</v>
       </c>
+      <c r="K108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -3944,6 +4596,12 @@
       <c r="J109" t="n">
         <v>1</v>
       </c>
+      <c r="K109" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -3976,6 +4634,12 @@
       <c r="J110" t="n">
         <v>1</v>
       </c>
+      <c r="K110" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -4008,6 +4672,12 @@
       <c r="J111" t="n">
         <v>1</v>
       </c>
+      <c r="K111" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -4040,6 +4710,12 @@
       <c r="J112" t="n">
         <v>1</v>
       </c>
+      <c r="K112" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -4072,6 +4748,12 @@
       <c r="J113" t="n">
         <v>1</v>
       </c>
+      <c r="K113" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -4104,6 +4786,12 @@
       <c r="J114" t="n">
         <v>1</v>
       </c>
+      <c r="K114" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -4136,6 +4824,12 @@
       <c r="J115" t="n">
         <v>1</v>
       </c>
+      <c r="K115" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -4168,6 +4862,12 @@
       <c r="J116" t="n">
         <v>1</v>
       </c>
+      <c r="K116" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -4200,6 +4900,12 @@
       <c r="J117" t="n">
         <v>1</v>
       </c>
+      <c r="K117" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -4232,6 +4938,12 @@
       <c r="J118" t="n">
         <v>1</v>
       </c>
+      <c r="K118" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -4264,6 +4976,12 @@
       <c r="J119" t="n">
         <v>1</v>
       </c>
+      <c r="K119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -4296,6 +5014,12 @@
       <c r="J120" t="n">
         <v>1</v>
       </c>
+      <c r="K120" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -4328,6 +5052,12 @@
       <c r="J121" t="n">
         <v>1</v>
       </c>
+      <c r="K121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -4360,6 +5090,12 @@
       <c r="J122" t="n">
         <v>1</v>
       </c>
+      <c r="K122" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -4392,6 +5128,12 @@
       <c r="J123" t="n">
         <v>1</v>
       </c>
+      <c r="K123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -4424,6 +5166,12 @@
       <c r="J124" t="n">
         <v>1</v>
       </c>
+      <c r="K124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -4456,6 +5204,12 @@
       <c r="J125" t="n">
         <v>1</v>
       </c>
+      <c r="K125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -4488,6 +5242,12 @@
       <c r="J126" t="n">
         <v>1</v>
       </c>
+      <c r="K126" t="n">
+        <v>1000.2893348</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1001.54894803</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -4520,6 +5280,12 @@
       <c r="J127" t="n">
         <v>1</v>
       </c>
+      <c r="K127" t="n">
+        <v>1000.29504769</v>
+      </c>
+      <c r="L127" t="n">
+        <v>985.9154708</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -4552,6 +5318,12 @@
       <c r="J128" t="n">
         <v>1</v>
       </c>
+      <c r="K128" t="n">
+        <v>1003.03974461</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1039.81466347</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -4584,6 +5356,12 @@
       <c r="J129" t="n">
         <v>1</v>
       </c>
+      <c r="K129" t="n">
+        <v>1005.53080042</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1027.12165832</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -4616,6 +5394,12 @@
       <c r="J130" t="n">
         <v>1</v>
       </c>
+      <c r="K130" t="n">
+        <v>1018.70379251</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1060.57956911</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -4648,6 +5432,12 @@
       <c r="J131" t="n">
         <v>1</v>
       </c>
+      <c r="K131" t="n">
+        <v>1020.3880397</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1032.85933449</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -4680,6 +5470,12 @@
       <c r="J132" t="n">
         <v>1</v>
       </c>
+      <c r="K132" t="n">
+        <v>1019.71949568</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1028.85321508</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -4712,6 +5508,12 @@
       <c r="J133" t="n">
         <v>1</v>
       </c>
+      <c r="K133" t="n">
+        <v>1019.86046817</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1019.00738409</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -4744,6 +5546,12 @@
       <c r="J134" t="n">
         <v>1</v>
       </c>
+      <c r="K134" t="n">
+        <v>1026.53510927</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1062.17037041</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -4776,6 +5584,12 @@
       <c r="J135" t="n">
         <v>1</v>
       </c>
+      <c r="K135" t="n">
+        <v>1027.77352443</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1041.11426445</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -4808,6 +5622,12 @@
       <c r="J136" t="n">
         <v>1</v>
       </c>
+      <c r="K136" t="n">
+        <v>1030.25518321</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1054.52178141</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -4840,6 +5660,12 @@
       <c r="J137" t="n">
         <v>1</v>
       </c>
+      <c r="K137" t="n">
+        <v>1033.52791717</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1035.83329453</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -4872,6 +5698,12 @@
       <c r="J138" t="n">
         <v>1</v>
       </c>
+      <c r="K138" t="n">
+        <v>1030.90204354</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1057.40910617</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -4904,6 +5736,12 @@
       <c r="J139" t="n">
         <v>1</v>
       </c>
+      <c r="K139" t="n">
+        <v>1030.39325788</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1040.40259865</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -4936,6 +5774,12 @@
       <c r="J140" t="n">
         <v>1</v>
       </c>
+      <c r="K140" t="n">
+        <v>1038.98178887</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1081.55476171</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -4968,6 +5812,12 @@
       <c r="J141" t="n">
         <v>1</v>
       </c>
+      <c r="K141" t="n">
+        <v>1036.35557011</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1060.65174782</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -5000,6 +5850,12 @@
       <c r="J142" t="n">
         <v>1</v>
       </c>
+      <c r="K142" t="n">
+        <v>1035.30929023</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1042.35033195</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -5032,6 +5888,12 @@
       <c r="J143" t="n">
         <v>1</v>
       </c>
+      <c r="K143" t="n">
+        <v>1036.92619505</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1039.52624399</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -5064,6 +5926,12 @@
       <c r="J144" t="n">
         <v>1</v>
       </c>
+      <c r="K144" t="n">
+        <v>1038.05942202</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1062.59456512</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -5096,6 +5964,12 @@
       <c r="J145" t="n">
         <v>1</v>
       </c>
+      <c r="K145" t="n">
+        <v>1055.04836608</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1192.77798853</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -5128,6 +6002,12 @@
       <c r="J146" t="n">
         <v>1</v>
       </c>
+      <c r="K146" t="n">
+        <v>1051.88354023</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1050.02899354</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -5160,6 +6040,12 @@
       <c r="J147" t="n">
         <v>1</v>
       </c>
+      <c r="K147" t="n">
+        <v>1049.519851</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1086.52227933</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -5192,6 +6078,12 @@
       <c r="J148" t="n">
         <v>1</v>
       </c>
+      <c r="K148" t="n">
+        <v>1050.17850993</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1059.83232738</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -5224,6 +6116,12 @@
       <c r="J149" t="n">
         <v>1</v>
       </c>
+      <c r="K149" t="n">
+        <v>1061.33821049</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1539.11750071</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -5256,6 +6154,12 @@
       <c r="J150" t="n">
         <v>1</v>
       </c>
+      <c r="K150" t="n">
+        <v>1062.34652875</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1052.46082463</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -5288,6 +6192,12 @@
       <c r="J151" t="n">
         <v>1</v>
       </c>
+      <c r="K151" t="n">
+        <v>1061.9601408</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1075.95646325</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -5320,6 +6230,12 @@
       <c r="J152" t="n">
         <v>1</v>
       </c>
+      <c r="K152" t="n">
+        <v>1061.56176466</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1075.76921358</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -5352,6 +6268,12 @@
       <c r="J153" t="n">
         <v>1</v>
       </c>
+      <c r="K153" t="n">
+        <v>1062.56478801</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1093.60440317</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -5384,6 +6306,12 @@
       <c r="J154" t="n">
         <v>1</v>
       </c>
+      <c r="K154" t="n">
+        <v>1060.72863164</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1071.64245927</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -5416,6 +6344,12 @@
       <c r="J155" t="n">
         <v>1</v>
       </c>
+      <c r="K155" t="n">
+        <v>1057.68625802</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1091.97982214</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -5448,6 +6382,12 @@
       <c r="J156" t="n">
         <v>1</v>
       </c>
+      <c r="K156" t="n">
+        <v>1058.46537217</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1053.76375964</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -5480,6 +6420,12 @@
       <c r="J157" t="n">
         <v>1</v>
       </c>
+      <c r="K157" t="n">
+        <v>1058.46100313</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1055.6607774</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -5512,6 +6458,12 @@
       <c r="J158" t="n">
         <v>1</v>
       </c>
+      <c r="K158" t="n">
+        <v>1056.48232901</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1102.10517448</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -5544,6 +6496,12 @@
       <c r="J159" t="n">
         <v>1</v>
       </c>
+      <c r="K159" t="n">
+        <v>1072.35437328</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1075.02795147</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -5576,6 +6534,12 @@
       <c r="J160" t="n">
         <v>1</v>
       </c>
+      <c r="K160" t="n">
+        <v>1077.87635842</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1126.04691928</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -5608,6 +6572,12 @@
       <c r="J161" t="n">
         <v>1</v>
       </c>
+      <c r="K161" t="n">
+        <v>1081.24156252</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1134.31642007</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -5640,6 +6610,12 @@
       <c r="J162" t="n">
         <v>1</v>
       </c>
+      <c r="K162" t="n">
+        <v>1075.62858648</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1632.03322661</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -5672,6 +6648,12 @@
       <c r="J163" t="n">
         <v>1</v>
       </c>
+      <c r="K163" t="n">
+        <v>1087.50713223</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1119.19893595</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -5704,6 +6686,12 @@
       <c r="J164" t="n">
         <v>1</v>
       </c>
+      <c r="K164" t="n">
+        <v>1093.50316426</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1093.48934895</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -5736,6 +6724,12 @@
       <c r="J165" t="n">
         <v>1</v>
       </c>
+      <c r="K165" t="n">
+        <v>1105.41519728</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1299.95201806</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -5768,6 +6762,12 @@
       <c r="J166" t="n">
         <v>1</v>
       </c>
+      <c r="K166" t="n">
+        <v>1107.154146</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1155.49497155</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -5800,6 +6800,12 @@
       <c r="J167" t="n">
         <v>1</v>
       </c>
+      <c r="K167" t="n">
+        <v>1106.61725328</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1117.76875127</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -5832,6 +6838,12 @@
       <c r="J168" t="n">
         <v>1</v>
       </c>
+      <c r="K168" t="n">
+        <v>1108.01332557</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1121.74277135</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -5864,6 +6876,12 @@
       <c r="J169" t="n">
         <v>1</v>
       </c>
+      <c r="K169" t="n">
+        <v>1105.23276389</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1117.84975432</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -5896,6 +6914,12 @@
       <c r="J170" t="n">
         <v>1</v>
       </c>
+      <c r="K170" t="n">
+        <v>1104.40186301</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1126.97127102</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -5928,6 +6952,12 @@
       <c r="J171" t="n">
         <v>1</v>
       </c>
+      <c r="K171" t="n">
+        <v>1101.86280857</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1099.89523175</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -5960,6 +6990,12 @@
       <c r="J172" t="n">
         <v>1</v>
       </c>
+      <c r="K172" t="n">
+        <v>1102.35329202</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1117.66403981</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -5992,6 +7028,12 @@
       <c r="J173" t="n">
         <v>1</v>
       </c>
+      <c r="K173" t="n">
+        <v>1099.2605128</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1140.18683075</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -6024,6 +7066,12 @@
       <c r="J174" t="n">
         <v>1</v>
       </c>
+      <c r="K174" t="n">
+        <v>1103.53843693</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1212.83143698</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -6056,6 +7104,12 @@
       <c r="J175" t="n">
         <v>1</v>
       </c>
+      <c r="K175" t="n">
+        <v>1107.32933301</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1108.11446419</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -6088,6 +7142,12 @@
       <c r="J176" t="n">
         <v>1</v>
       </c>
+      <c r="K176" t="n">
+        <v>1109.42947096</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1108.22096909</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -6120,6 +7180,12 @@
       <c r="J177" t="n">
         <v>1</v>
       </c>
+      <c r="K177" t="n">
+        <v>1108.57902883</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1110.45235787</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -6152,6 +7218,12 @@
       <c r="J178" t="n">
         <v>1</v>
       </c>
+      <c r="K178" t="n">
+        <v>1108.38985456</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1178.67101126</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -6184,6 +7256,12 @@
       <c r="J179" t="n">
         <v>1</v>
       </c>
+      <c r="K179" t="n">
+        <v>1105.04304644</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1148.30296293</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -6216,6 +7294,12 @@
       <c r="J180" t="n">
         <v>1</v>
       </c>
+      <c r="K180" t="n">
+        <v>1111.59839435</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1259.09404609</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -6248,6 +7332,12 @@
       <c r="J181" t="n">
         <v>1</v>
       </c>
+      <c r="K181" t="n">
+        <v>1114.44454535</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1110.91854483</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -6280,6 +7370,12 @@
       <c r="J182" t="n">
         <v>1</v>
       </c>
+      <c r="K182" t="n">
+        <v>1116.58774741</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1181.6988071</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -6312,6 +7408,12 @@
       <c r="J183" t="n">
         <v>1</v>
       </c>
+      <c r="K183" t="n">
+        <v>1117.819629</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1149.40713923</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -6344,6 +7446,12 @@
       <c r="J184" t="n">
         <v>1</v>
       </c>
+      <c r="K184" t="n">
+        <v>1119.75442841</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1122.45031147</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -6376,6 +7484,12 @@
       <c r="J185" t="n">
         <v>1</v>
       </c>
+      <c r="K185" t="n">
+        <v>1121.99714575</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1189.85096638</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -6408,6 +7522,12 @@
       <c r="J186" t="n">
         <v>1</v>
       </c>
+      <c r="K186" t="n">
+        <v>1121.72767839</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1121.79624994</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -6440,6 +7560,12 @@
       <c r="J187" t="n">
         <v>1</v>
       </c>
+      <c r="K187" t="n">
+        <v>1120.93988524</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1129.65131288</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -6472,6 +7598,12 @@
       <c r="J188" t="n">
         <v>1</v>
       </c>
+      <c r="K188" t="n">
+        <v>1120.32475411</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1135.51100545</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -6504,6 +7636,12 @@
       <c r="J189" t="n">
         <v>1</v>
       </c>
+      <c r="K189" t="n">
+        <v>1119.52883547</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1118.07146497</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -6536,6 +7674,12 @@
       <c r="J190" t="n">
         <v>1</v>
       </c>
+      <c r="K190" t="n">
+        <v>1118.96884692</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1130.4723576</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -6568,6 +7712,12 @@
       <c r="J191" t="n">
         <v>1</v>
       </c>
+      <c r="K191" t="n">
+        <v>1119.08112726</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1139.27071841</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -6600,6 +7750,12 @@
       <c r="J192" t="n">
         <v>1</v>
       </c>
+      <c r="K192" t="n">
+        <v>1120.21540305</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1182.78553893</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -6632,6 +7788,12 @@
       <c r="J193" t="n">
         <v>1</v>
       </c>
+      <c r="K193" t="n">
+        <v>1120.51559173</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1107.76100851</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -6664,6 +7826,12 @@
       <c r="J194" t="n">
         <v>1</v>
       </c>
+      <c r="K194" t="n">
+        <v>1123.29698119</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1117.27798924</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -6696,6 +7864,12 @@
       <c r="J195" t="n">
         <v>1</v>
       </c>
+      <c r="K195" t="n">
+        <v>1121.8749194</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1128.77744286</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -6728,6 +7902,12 @@
       <c r="J196" t="n">
         <v>1</v>
       </c>
+      <c r="K196" t="n">
+        <v>1120.89408737</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1122.34722808</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -6760,6 +7940,12 @@
       <c r="J197" t="n">
         <v>1</v>
       </c>
+      <c r="K197" t="n">
+        <v>1117.51577928</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1113.97481275</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -6792,6 +7978,12 @@
       <c r="J198" t="n">
         <v>1</v>
       </c>
+      <c r="K198" t="n">
+        <v>1122.67171335</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1184.03617632</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -6824,6 +8016,12 @@
       <c r="J199" t="n">
         <v>1</v>
       </c>
+      <c r="K199" t="n">
+        <v>1122.65892626</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1121.79617086</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -6856,6 +8054,12 @@
       <c r="J200" t="n">
         <v>1</v>
       </c>
+      <c r="K200" t="n">
+        <v>1124.1970372</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1697.81170471</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -6888,6 +8092,12 @@
       <c r="J201" t="n">
         <v>1</v>
       </c>
+      <c r="K201" t="n">
+        <v>1123.23287561</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1125.01063681</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -6920,6 +8130,12 @@
       <c r="J202" t="n">
         <v>1</v>
       </c>
+      <c r="K202" t="n">
+        <v>1126.62253002</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1164.30160456</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -6952,6 +8168,12 @@
       <c r="J203" t="n">
         <v>1</v>
       </c>
+      <c r="K203" t="n">
+        <v>1126.0801591</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1113.70537131</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -6984,6 +8206,12 @@
       <c r="J204" t="n">
         <v>1</v>
       </c>
+      <c r="K204" t="n">
+        <v>1129.16406183</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1154.37999401</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -7016,6 +8244,12 @@
       <c r="J205" t="n">
         <v>1</v>
       </c>
+      <c r="K205" t="n">
+        <v>1127.32464231</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1136.93448891</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -7048,6 +8282,12 @@
       <c r="J206" t="n">
         <v>1</v>
       </c>
+      <c r="K206" t="n">
+        <v>1119.84021783</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1284.09634894</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -7080,6 +8320,12 @@
       <c r="J207" t="n">
         <v>1</v>
       </c>
+      <c r="K207" t="n">
+        <v>1121.36617172</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1133.35698599</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -7112,6 +8358,12 @@
       <c r="J208" t="n">
         <v>1</v>
       </c>
+      <c r="K208" t="n">
+        <v>1122.87714155</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1131.40924926</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -7144,6 +8396,12 @@
       <c r="J209" t="n">
         <v>1</v>
       </c>
+      <c r="K209" t="n">
+        <v>1123.71833973</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1133.83997132</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -7176,6 +8434,12 @@
       <c r="J210" t="n">
         <v>1</v>
       </c>
+      <c r="K210" t="n">
+        <v>1127.03573897</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1124.63286293</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -7208,6 +8472,12 @@
       <c r="J211" t="n">
         <v>1</v>
       </c>
+      <c r="K211" t="n">
+        <v>1125.65200435</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1128.0855032</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -7240,6 +8510,12 @@
       <c r="J212" t="n">
         <v>1</v>
       </c>
+      <c r="K212" t="n">
+        <v>1128.40726232</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1133.99649785</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -7272,6 +8548,12 @@
       <c r="J213" t="n">
         <v>1</v>
       </c>
+      <c r="K213" t="n">
+        <v>1128.50634168</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1130.06109237</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -7304,6 +8586,12 @@
       <c r="J214" t="n">
         <v>1</v>
       </c>
+      <c r="K214" t="n">
+        <v>1127.3847525</v>
+      </c>
+      <c r="L214" t="n">
+        <v>1215.7443881</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -7336,6 +8624,12 @@
       <c r="J215" t="n">
         <v>1</v>
       </c>
+      <c r="K215" t="n">
+        <v>1129.3263159</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1156.59582187</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -7368,6 +8662,12 @@
       <c r="J216" t="n">
         <v>1</v>
       </c>
+      <c r="K216" t="n">
+        <v>1129.97985132</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1125.534296</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -7400,6 +8700,12 @@
       <c r="J217" t="n">
         <v>1</v>
       </c>
+      <c r="K217" t="n">
+        <v>1128.07083913</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1211.96320305</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -7432,6 +8738,12 @@
       <c r="J218" t="n">
         <v>1</v>
       </c>
+      <c r="K218" t="n">
+        <v>1129.46127447</v>
+      </c>
+      <c r="L218" t="n">
+        <v>1125.70584026</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -7464,6 +8776,12 @@
       <c r="J219" t="n">
         <v>1</v>
       </c>
+      <c r="K219" t="n">
+        <v>1129.73505916</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1158.35548826</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -7496,6 +8814,12 @@
       <c r="J220" t="n">
         <v>1</v>
       </c>
+      <c r="K220" t="n">
+        <v>1129.56915472</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1154.54659568</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -7528,6 +8852,12 @@
       <c r="J221" t="n">
         <v>1</v>
       </c>
+      <c r="K221" t="n">
+        <v>1130.48744181</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1199.67241961</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -7560,6 +8890,12 @@
       <c r="J222" t="n">
         <v>1</v>
       </c>
+      <c r="K222" t="n">
+        <v>1129.67332518</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1152.95114085</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -7592,6 +8928,12 @@
       <c r="J223" t="n">
         <v>1</v>
       </c>
+      <c r="K223" t="n">
+        <v>1133.68881296</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1146.95044126</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -7624,6 +8966,12 @@
       <c r="J224" t="n">
         <v>1</v>
       </c>
+      <c r="K224" t="n">
+        <v>1136.53392435</v>
+      </c>
+      <c r="L224" t="n">
+        <v>1199.8724315</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -7656,6 +9004,12 @@
       <c r="J225" t="n">
         <v>1</v>
       </c>
+      <c r="K225" t="n">
+        <v>1136.7268669</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1157.74114945</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -7688,6 +9042,12 @@
       <c r="J226" t="n">
         <v>1</v>
       </c>
+      <c r="K226" t="n">
+        <v>1132.64990912</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1194.76143967</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -7720,6 +9080,12 @@
       <c r="J227" t="n">
         <v>1</v>
       </c>
+      <c r="K227" t="n">
+        <v>1149.8605206</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1649.48905317</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -7752,6 +9118,12 @@
       <c r="J228" t="n">
         <v>1</v>
       </c>
+      <c r="K228" t="n">
+        <v>1149.61663251</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1147.05785959</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -7784,6 +9156,12 @@
       <c r="J229" t="n">
         <v>1</v>
       </c>
+      <c r="K229" t="n">
+        <v>1147.34794711</v>
+      </c>
+      <c r="L229" t="n">
+        <v>1175.66070916</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -7816,6 +9194,12 @@
       <c r="J230" t="n">
         <v>1</v>
       </c>
+      <c r="K230" t="n">
+        <v>1147.35796668</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1159.61501703</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -7848,6 +9232,12 @@
       <c r="J231" t="n">
         <v>1</v>
       </c>
+      <c r="K231" t="n">
+        <v>1145.61811388</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1166.46225719</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -7880,6 +9270,12 @@
       <c r="J232" t="n">
         <v>1</v>
       </c>
+      <c r="K232" t="n">
+        <v>1146.91677617</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1149.06582221</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -7912,6 +9308,12 @@
       <c r="J233" t="n">
         <v>1</v>
       </c>
+      <c r="K233" t="n">
+        <v>1149.64051859</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1153.70183385</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -7944,6 +9346,12 @@
       <c r="J234" t="n">
         <v>1</v>
       </c>
+      <c r="K234" t="n">
+        <v>1149.49768805</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1153.28270049</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -7976,6 +9384,12 @@
       <c r="J235" t="n">
         <v>1</v>
       </c>
+      <c r="K235" t="n">
+        <v>1147.31089826</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1143.11556897</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -8008,6 +9422,12 @@
       <c r="J236" t="n">
         <v>1</v>
       </c>
+      <c r="K236" t="n">
+        <v>1147.64387329</v>
+      </c>
+      <c r="L236" t="n">
+        <v>1173.84954419</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -8040,6 +9460,12 @@
       <c r="J237" t="n">
         <v>1</v>
       </c>
+      <c r="K237" t="n">
+        <v>1145.74303424</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1144.29278821</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -8072,6 +9498,12 @@
       <c r="J238" t="n">
         <v>1</v>
       </c>
+      <c r="K238" t="n">
+        <v>1148.86682984</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1159.36127191</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -8103,6 +9535,12 @@
       </c>
       <c r="J239" t="n">
         <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1150.18472462</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1156.33574206</v>
       </c>
     </row>
   </sheetData>
